--- a/Raw_data_cleaned/Burley/Burley25.xlsx
+++ b/Raw_data_cleaned/Burley/Burley25.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitvaraaravithya/Documents/tobacco_project_review/Raw_data_cleaned/Burley/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobacco\Raw_data_cleaned\Burley\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B331243D-CA98-A34B-99B2-7E8DDFD1CC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{268A4652-416A-4D3D-B187-119E76654DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="3800" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +41,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -355,16 +355,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B9AF02-60A8-FC45-8851-57BAEFFEA3ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="32" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:BE293"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>6.5300000000000004E-4</v>
       </c>
@@ -710,7 +710,7 @@
         <v>284.884646560519</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1.3060000000000001E-3</v>
       </c>
@@ -883,7 +883,7 @@
         <v>278.8732041878381</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1.9599999999999999E-3</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>273.72442842853155</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3.9189999999999997E-3</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>260.99101975815506</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4.5719999999999997E-3</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>257.32381228111069</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5.2249999999999996E-3</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>253.86459673807701</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>8.4910000000000003E-3</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>238.87316481774738</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1.6329E-2</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>212.20337606797017</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2.4819999999999998E-2</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>191.29645026358074</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2.6127000000000001E-2</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>188.55301341872436</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2.7432999999999999E-2</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>185.91286954710193</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3.0699000000000001E-2</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>179.71095493445947</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>3.5270999999999997E-2</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>171.86023244686399</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>3.5923999999999998E-2</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>170.80845682640606</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>3.7884000000000001E-2</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>167.74562736857564</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>4.0495999999999997E-2</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>163.8685270571786</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>4.2456000000000001E-2</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>161.10021484547266</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>4.5721999999999999E-2</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>156.73095857021966</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>4.6375E-2</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>155.89141593190084</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>4.8987999999999997E-2</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>152.63722032765489</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>4.9640999999999998E-2</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>151.84915799749774</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>5.0293999999999998E-2</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>151.07073564124454</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>5.0946999999999999E-2</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>150.3017513512973</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5.16E-2</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>149.54200938477902</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>5.2253000000000001E-2</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>148.7913199122568</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>5.2907000000000003E-2</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>148.04836946801805</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>5.6826000000000002E-2</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>143.77304673625818</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>5.8132000000000003E-2</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>142.41173330418397</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>6.3356999999999997E-2</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>137.25222788727959</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>6.4009999999999997E-2</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>136.63757798244791</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>6.4663999999999999E-2</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>136.02831282733979</v>
       </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>6.6623000000000002E-2</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>134.24011789110597</v>
       </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>6.9889000000000007E-2</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>131.3754982715198</v>
       </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>7.0541999999999994E-2</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>130.81938026013106</v>
       </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7.1194999999999994E-2</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>130.26859495304518</v>
       </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>7.5767000000000001E-2</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>126.55468097514795</v>
       </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>7.6421000000000003E-2</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>126.04286326118843</v>
       </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>7.8380000000000005E-2</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>124.53726186441359</v>
       </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>7.9033000000000006E-2</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>124.04433133908732</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>8.3604999999999999E-2</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>120.71163965805435</v>
       </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>8.4259000000000001E-2</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>120.25115702253446</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>8.7524000000000005E-2</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>118.00942322151836</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>8.8178000000000006E-2</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>117.57147302613244</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>8.9483999999999994E-2</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>116.70758136194648</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>9.4056000000000001E-2</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>113.79043607689162</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>9.9934999999999996E-2</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>110.26592923669476</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>0.103201</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>108.40868659546076</v>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>0.10842599999999999</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>105.57424919465838</v>
       </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>0.111039</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>104.21581736531979</v>
       </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>0.111692</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>103.882186539313</v>
       </c>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>0.112998</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>103.22175548306124</v>
       </c>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>0.113651</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>102.89490439512302</v>
       </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>0.114304</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>102.57026302805649</v>
       </c>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>0.114958</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>102.24731479588483</v>
       </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>0.11561100000000001</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>101.92702321543902</v>
       </c>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>0.11626400000000001</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>101.60886912615034</v>
       </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>0.11691699999999999</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>101.2928292042064</v>
       </c>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>0.11756999999999999</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>100.97888048355989</v>
       </c>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>0.124755</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>97.656340515152536</v>
       </c>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>0.13651199999999999</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>92.690157310792387</v>
       </c>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>0.13716500000000001</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>92.429796743251799</v>
       </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>0.14435000000000001</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>89.662561942068251</v>
       </c>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>0.152841</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>86.605842866780222</v>
       </c>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>0.15676000000000001</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>85.266280939037131</v>
       </c>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>0.157413</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>85.047201352137989</v>
       </c>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>0.15872</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>84.612154664798865</v>
       </c>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>0.16067899999999999</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>83.968550331604675</v>
       </c>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>0.161332</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>83.756234660535895</v>
       </c>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>0.167211</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>81.892935475781059</v>
       </c>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>0.169824</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>81.091565370899829</v>
       </c>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>0.17635500000000001</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>79.156390246800328</v>
       </c>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>0.17766199999999999</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>78.780264973918449</v>
       </c>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>0.18027399999999999</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>78.039272550956184</v>
       </c>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>0.180927</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>77.856209768491667</v>
       </c>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>0.18484700000000001</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>76.775140523714754</v>
       </c>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>0.189419</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>75.551630140180592</v>
       </c>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>0.19007199999999999</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>75.380052712101474</v>
       </c>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>0.19137799999999999</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>75.039218295341982</v>
       </c>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>0.192685</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>74.701182987245843</v>
       </c>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>0.195297</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>74.034626438642931</v>
       </c>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>0.19986899999999999</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>72.895884697693234</v>
       </c>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>0.214892</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>69.386048128531101</v>
       </c>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>0.21881100000000001</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>68.52434184657433</v>
       </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>0.220771</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>68.10116640875323</v>
       </c>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>0.22142400000000001</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>67.961308320966594</v>
       </c>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>0.222077</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>67.822008192356947</v>
       </c>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>0.22469</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>67.270106751217924</v>
       </c>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>0.22534299999999999</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>67.133544286481367</v>
       </c>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>0.227302</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>66.727065300372132</v>
       </c>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>0.22795599999999999</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>66.592425111093149</v>
       </c>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>0.245591</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>63.14972616165803</v>
       </c>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>0.25473499999999999</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>61.495774744818824</v>
       </c>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>0.25604199999999999</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>61.266083394093435</v>
       </c>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>0.25669500000000001</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>61.151934677988045</v>
       </c>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>0.258654</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>60.811896185364581</v>
       </c>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>0.25930799999999998</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>60.699172993829286</v>
       </c>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>0.26518599999999998</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>59.703511262398997</v>
       </c>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>0.26714599999999999</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>59.378334091788453</v>
       </c>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>0.26910499999999998</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>59.056639622022281</v>
       </c>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>0.273677</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>58.318454590032765</v>
       </c>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>0.27498400000000001</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>58.11060212579374</v>
       </c>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>0.27628999999999998</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>57.904290310654268</v>
       </c>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>0.27890300000000001</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>57.495596189862447</v>
       </c>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>0.27955600000000003</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>57.394302566200487</v>
       </c>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>0.280862</v>
       </c>
@@ -18702,7 +18702,7 @@
         <v>57.192711618560303</v>
       </c>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>0.282169</v>
       </c>
@@ -18875,7 +18875,7 @@
         <v>56.992284647999192</v>
       </c>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>0.28478100000000001</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>56.595634195124283</v>
       </c>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>0.28608800000000001</v>
       </c>
@@ -19221,7 +19221,7 @@
         <v>56.399080120392135</v>
       </c>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>0.28739399999999998</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>56.203940034383599</v>
       </c>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>0.288047</v>
       </c>
@@ -19567,7 +19567,7 @@
         <v>56.106839606600808</v>
       </c>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>0.28935300000000003</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>55.913569975202186</v>
       </c>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>0.29000700000000001</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>55.817250560455655</v>
       </c>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>0.29065999999999997</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>55.721384857832895</v>
       </c>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>0.29131299999999999</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>55.625823798161228</v>
       </c>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>0.29261900000000002</v>
       </c>
@@ -20432,7 +20432,7 @@
         <v>55.435609436086828</v>
       </c>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>0.29327199999999998</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>55.340953074856152</v>
       </c>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>0.29392600000000002</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>55.246450967903932</v>
       </c>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>0.29457899999999998</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>55.152390607706828</v>
       </c>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>0.29523199999999999</v>
       </c>
@@ -21124,7 +21124,7 @@
         <v>55.058625775013745</v>
       </c>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>0.29653800000000002</v>
       </c>
@@ -21297,7 +21297,7 @@
         <v>54.871976774106052</v>
       </c>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>0.29719099999999998</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>54.779089672429372</v>
       </c>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>0.29849799999999999</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>54.594041867235383</v>
       </c>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>0.30045699999999997</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>54.318830552726347</v>
       </c>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>0.30372300000000002</v>
       </c>
@@ -21989,7 +21989,7 @@
         <v>53.865639951597636</v>
       </c>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>0.30502899999999999</v>
       </c>
@@ -22162,7 +22162,7 @@
         <v>53.686358927805095</v>
       </c>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>0.30568299999999998</v>
       </c>
@@ -22335,7 +22335,7 @@
         <v>53.596992134608236</v>
       </c>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>0.30698900000000001</v>
       </c>
@@ -22508,7 +22508,7 @@
         <v>53.419345924620394</v>
       </c>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>0.30764200000000003</v>
       </c>
@@ -22681,7 +22681,7 @@
         <v>53.330927022801482</v>
       </c>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>0.30829499999999999</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>53.242775851177974</v>
       </c>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>0.308948</v>
       </c>
@@ -23027,7 +23027,7 @@
         <v>53.154891116688695</v>
       </c>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>0.30960199999999999</v>
       </c>
@@ -23200,7 +23200,7 @@
         <v>53.067137557506904</v>
       </c>
     </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>0.310255</v>
       </c>
@@ -23373,7 +23373,7 @@
         <v>52.979782255613564</v>
       </c>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>0.31090800000000002</v>
       </c>
@@ -23546,7 +23546,7 @@
         <v>52.892689561132435</v>
       </c>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>0.31156099999999998</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>52.805858215037127</v>
       </c>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>0.31221399999999999</v>
       </c>
@@ -23892,7 +23892,7 @@
         <v>52.719286966626832</v>
       </c>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>0.31286700000000001</v>
       </c>
@@ -24065,7 +24065,7 @@
         <v>52.632974573456188</v>
       </c>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>0.31352099999999999</v>
       </c>
@@ -24238,7 +24238,7 @@
         <v>52.54678821447407</v>
       </c>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>0.31417400000000001</v>
       </c>
@@ -24411,7 +24411,7 @@
         <v>52.460990228825544</v>
       </c>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>0.31482700000000002</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>52.375447418060354</v>
       </c>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>0.31547999999999998</v>
       </c>
@@ -24757,7 +24757,7 @@
         <v>52.290158572077239</v>
       </c>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>0.316133</v>
       </c>
@@ -24930,7 +24930,7 @@
         <v>52.205122488689092</v>
       </c>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>0.31744</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>52.035674576500917</v>
       </c>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>0.31809300000000001</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>51.951390026654856</v>
       </c>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>0.31874599999999997</v>
       </c>
@@ -25449,7 +25449,7 @@
         <v>51.867353506695359</v>
       </c>
     </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>0.320052</v>
       </c>
@@ -25622,7 +25622,7 @@
         <v>51.700019909626654</v>
       </c>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>0.32070500000000002</v>
       </c>
@@ -25795,7 +25795,7 @@
         <v>51.61672052786826</v>
       </c>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>0.32135900000000001</v>
       </c>
@@ -25968,7 +25968,7 @@
         <v>51.533537561299831</v>
       </c>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>0.35140399999999999</v>
       </c>
@@ -26141,7 +26141,7 @@
         <v>47.957045473795958</v>
       </c>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>0.35205700000000001</v>
       </c>
@@ -26314,7 +26314,7 @@
         <v>47.884268968241869</v>
       </c>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>0.35401700000000003</v>
       </c>
@@ -26487,7 +26487,7 @@
         <v>47.667003310557917</v>
       </c>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>0.35858899999999999</v>
       </c>
@@ -26660,7 +26660,7 @@
         <v>47.166944720822578</v>
       </c>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>0.36120200000000002</v>
       </c>
@@ -26833,7 +26833,7 @@
         <v>46.885308051638802</v>
       </c>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>0.36316100000000001</v>
       </c>
@@ -27006,7 +27006,7 @@
         <v>46.676106163336023</v>
       </c>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>0.36773400000000001</v>
       </c>
@@ -27179,7 +27179,7 @@
         <v>46.194115206176882</v>
       </c>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>0.36903999999999998</v>
       </c>
@@ -27352,7 +27352,7 @@
         <v>46.058071549295882</v>
       </c>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>0.36969299999999999</v>
       </c>
@@ -27525,7 +27525,7 @@
         <v>45.99031391348452</v>
       </c>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>0.373612</v>
       </c>
@@ -27698,7 +27698,7 @@
         <v>45.587319377796376</v>
       </c>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>0.37622499999999998</v>
       </c>
@@ -27871,7 +27871,7 @@
         <v>45.322051909768248</v>
       </c>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>0.37818400000000002</v>
       </c>
@@ -28044,7 +28044,7 @@
         <v>45.12494570099738</v>
       </c>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>0.384716</v>
       </c>
@@ -28217,7 +28217,7 @@
         <v>44.478426128151348</v>
       </c>
     </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>0.38602199999999998</v>
       </c>
@@ -28390,7 +28390,7 @@
         <v>44.351097801830967</v>
       </c>
     </row>
-    <row r="163" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>0.38863500000000001</v>
       </c>
@@ -28563,7 +28563,7 @@
         <v>44.098239584083508</v>
       </c>
     </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>0.391901</v>
       </c>
@@ -28736,7 +28736,7 @@
         <v>43.78569479051275</v>
       </c>
     </row>
-    <row r="165" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>0.39516699999999999</v>
       </c>
@@ -28909,7 +28909,7 @@
         <v>43.476972230204304</v>
       </c>
     </row>
-    <row r="166" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>0.39582000000000001</v>
       </c>
@@ -29082,7 +29082,7 @@
         <v>43.415698595262057</v>
       </c>
     </row>
-    <row r="167" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>0.39647300000000002</v>
       </c>
@@ -29255,7 +29255,7 @@
         <v>43.354574216182797</v>
       </c>
     </row>
-    <row r="168" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>0.40235100000000001</v>
       </c>
@@ -29428,7 +29428,7 @@
         <v>42.810985513408205</v>
       </c>
     </row>
-    <row r="169" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>0.40757700000000002</v>
       </c>
@@ -29601,7 +29601,7 @@
         <v>42.337478507547488</v>
       </c>
     </row>
-    <row r="170" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>0.41672100000000001</v>
       </c>
@@ -29774,7 +29774,7 @@
         <v>41.530283979119311</v>
       </c>
     </row>
-    <row r="171" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>0.42782500000000001</v>
       </c>
@@ -29947,7 +29947,7 @@
         <v>40.584803420144482</v>
       </c>
     </row>
-    <row r="172" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>0.43501000000000001</v>
       </c>
@@ -30120,7 +30120,7 @@
         <v>39.992300352579981</v>
       </c>
     </row>
-    <row r="173" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>0.43762200000000001</v>
       </c>
@@ -30293,7 +30293,7 @@
         <v>39.780517411389397</v>
       </c>
     </row>
-    <row r="174" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>0.44154100000000002</v>
       </c>
@@ -30466,7 +30466,7 @@
         <v>39.466286203219177</v>
       </c>
     </row>
-    <row r="175" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>0.44480700000000001</v>
       </c>
@@ -30639,7 +30639,7 @@
         <v>39.207588079958207</v>
       </c>
     </row>
-    <row r="176" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>0.45068599999999998</v>
       </c>
@@ -30812,7 +30812,7 @@
         <v>38.749020975151069</v>
       </c>
     </row>
-    <row r="177" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>0.45852399999999999</v>
       </c>
@@ -30985,7 +30985,7 @@
         <v>38.151439007430994</v>
       </c>
     </row>
-    <row r="178" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>0.466362</v>
       </c>
@@ -31158,7 +31158,7 @@
         <v>37.569032487799113</v>
       </c>
     </row>
-    <row r="179" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>0.46962799999999999</v>
       </c>
@@ -31331,7 +31331,7 @@
         <v>37.330685348580168</v>
       </c>
     </row>
-    <row r="180" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>0.47223999999999999</v>
       </c>
@@ -31504,7 +31504,7 @@
         <v>37.141858478847148</v>
       </c>
     </row>
-    <row r="181" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>0.47420000000000001</v>
       </c>
@@ -31677,7 +31677,7 @@
         <v>37.001198387133812</v>
       </c>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>0.47485300000000003</v>
       </c>
@@ -31850,7 +31850,7 @@
         <v>36.954530452246615</v>
       </c>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>0.483344</v>
       </c>
@@ -32023,7 +32023,7 @@
         <v>36.356406881977279</v>
       </c>
     </row>
-    <row r="184" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>0.49118200000000001</v>
       </c>
@@ -32196,7 +32196,7 @@
         <v>35.818228766789481</v>
       </c>
     </row>
-    <row r="185" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>0.50359200000000004</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>34.992246388475571</v>
       </c>
     </row>
-    <row r="186" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>0.50751100000000005</v>
       </c>
@@ -32542,7 +32542,7 @@
         <v>34.737803294246447</v>
       </c>
     </row>
-    <row r="187" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>0.50816499999999998</v>
       </c>
@@ -32715,7 +32715,7 @@
         <v>34.695632920289057</v>
       </c>
     </row>
-    <row r="188" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>0.52776000000000001</v>
       </c>
@@ -32888,7 +32888,7 @@
         <v>33.469297084515347</v>
       </c>
     </row>
-    <row r="189" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>0.52841300000000002</v>
       </c>
@@ -33061,7 +33061,7 @@
         <v>33.429628407691517</v>
       </c>
     </row>
-    <row r="190" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>0.52971900000000005</v>
       </c>
@@ -33234,7 +33234,7 @@
         <v>33.350515378938105</v>
       </c>
     </row>
-    <row r="191" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>0.53298500000000004</v>
       </c>
@@ -33407,7 +33407,7 @@
         <v>33.153971097295859</v>
       </c>
     </row>
-    <row r="192" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>0.53559800000000002</v>
       </c>
@@ -33580,7 +33580,7 @@
         <v>32.99804536980259</v>
       </c>
     </row>
-    <row r="193" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>0.53886299999999998</v>
       </c>
@@ -33753,7 +33753,7 @@
         <v>32.804841361576038</v>
       </c>
     </row>
-    <row r="194" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>0.55192699999999995</v>
       </c>
@@ -33926,7 +33926,7 @@
         <v>32.049385696061556</v>
       </c>
     </row>
-    <row r="195" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>0.56041799999999997</v>
       </c>
@@ -34099,7 +34099,7 @@
         <v>31.572927569816031</v>
       </c>
     </row>
-    <row r="196" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>0.56760299999999997</v>
       </c>
@@ -34272,7 +34272,7 @@
         <v>31.178339972999375</v>
       </c>
     </row>
-    <row r="197" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>0.56956200000000001</v>
       </c>
@@ -34445,7 +34445,7 @@
         <v>31.07208630822899</v>
       </c>
     </row>
-    <row r="198" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>0.57086899999999996</v>
       </c>
@@ -34618,7 +34618,7 @@
         <v>31.001508783496824</v>
       </c>
     </row>
-    <row r="199" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>0.58066600000000002</v>
       </c>
@@ -34791,7 +34791,7 @@
         <v>30.480291923943717</v>
       </c>
     </row>
-    <row r="200" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>0.58850400000000003</v>
       </c>
@@ -34964,7 +34964,7 @@
         <v>30.072968889768077</v>
       </c>
     </row>
-    <row r="201" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>0.60156799999999999</v>
       </c>
@@ -35137,7 +35137,7 @@
         <v>29.412370354347445</v>
       </c>
     </row>
-    <row r="202" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>0.60744600000000004</v>
       </c>
@@ -35310,7 +35310,7 @@
         <v>29.122336699316435</v>
       </c>
     </row>
-    <row r="203" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>0.61724400000000001</v>
       </c>
@@ -35483,7 +35483,7 @@
         <v>28.64842786499905</v>
       </c>
     </row>
-    <row r="204" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>0.62769399999999997</v>
       </c>
@@ -35656,7 +35656,7 @@
         <v>28.155684366036013</v>
       </c>
     </row>
-    <row r="205" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>0.63422599999999996</v>
       </c>
@@ -35829,7 +35829,7 @@
         <v>27.854111645680327</v>
       </c>
     </row>
-    <row r="206" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>0.63683900000000004</v>
       </c>
@@ -36002,7 +36002,7 @@
         <v>27.734822878842941</v>
       </c>
     </row>
-    <row r="207" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>0.64337</v>
       </c>
@@ -36175,7 +36175,7 @@
         <v>27.439974561425473</v>
       </c>
     </row>
-    <row r="208" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>0.647289</v>
       </c>
@@ -36348,7 +36348,7 @@
         <v>27.265276398759731</v>
       </c>
     </row>
-    <row r="209" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>0.64859599999999995</v>
       </c>
@@ -36521,7 +36521,7 @@
         <v>27.207380155553906</v>
       </c>
     </row>
-    <row r="210" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>0.64990199999999998</v>
       </c>
@@ -36694,7 +36694,7 @@
         <v>27.149709653998812</v>
       </c>
     </row>
-    <row r="211" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>0.65055499999999999</v>
       </c>
@@ -36867,7 +36867,7 @@
         <v>27.120942137938044</v>
       </c>
     </row>
-    <row r="212" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>0.665578</v>
       </c>
@@ -37040,7 +37040,7 @@
         <v>26.471320063317052</v>
       </c>
     </row>
-    <row r="213" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>0.69431699999999996</v>
       </c>
@@ -37213,7 +37213,7 @@
         <v>25.290321094934143</v>
       </c>
     </row>
-    <row r="214" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>0.70738100000000004</v>
       </c>
@@ -37386,7 +37386,7 @@
         <v>24.778483533532444</v>
       </c>
     </row>
-    <row r="215" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>0.71521900000000005</v>
       </c>
@@ -37559,7 +37559,7 @@
         <v>24.478467742241207</v>
       </c>
     </row>
-    <row r="216" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>0.72566900000000001</v>
       </c>
@@ -37732,7 +37732,7 @@
         <v>24.08642438896068</v>
       </c>
     </row>
-    <row r="217" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>0.74395800000000001</v>
       </c>
@@ -37905,7 +37905,7 @@
         <v>23.421266697956675</v>
       </c>
     </row>
-    <row r="218" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>0.74591799999999997</v>
       </c>
@@ -38078,7 +38078,7 @@
         <v>23.351512379457532</v>
       </c>
     </row>
-    <row r="219" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>0.75636800000000004</v>
       </c>
@@ -38251,7 +38251,7 @@
         <v>22.98443650565715</v>
       </c>
     </row>
-    <row r="220" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>0.76159399999999999</v>
       </c>
@@ -38424,7 +38424,7 @@
         <v>22.803854764559958</v>
       </c>
     </row>
-    <row r="221" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>0.76877899999999999</v>
       </c>
@@ -38597,7 +38597,7 @@
         <v>22.558756040365509</v>
       </c>
     </row>
-    <row r="222" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>0.77073800000000003</v>
       </c>
@@ -38770,7 +38770,7 @@
         <v>22.492557464897445</v>
       </c>
     </row>
-    <row r="223" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>0.77400400000000003</v>
       </c>
@@ -38943,7 +38943,7 @@
         <v>22.382782900821027</v>
       </c>
     </row>
-    <row r="224" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>0.77596299999999996</v>
       </c>
@@ -39116,7 +39116,7 @@
         <v>22.31728959830123</v>
       </c>
     </row>
-    <row r="225" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>0.78184200000000004</v>
       </c>
@@ -39289,7 +39289,7 @@
         <v>22.122305420875414</v>
       </c>
     </row>
-    <row r="226" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>0.78510800000000003</v>
       </c>
@@ -39462,7 +39462,7 @@
         <v>22.014985428904218</v>
       </c>
     </row>
-    <row r="227" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>0.79555799999999999</v>
       </c>
@@ -39635,7 +39635,7 @@
         <v>21.676304991277881</v>
       </c>
     </row>
-    <row r="228" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>0.79621200000000003</v>
       </c>
@@ -39808,7 +39808,7 @@
         <v>21.655343844860482</v>
       </c>
     </row>
-    <row r="229" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>0.79751799999999995</v>
       </c>
@@ -39981,7 +39981,7 @@
         <v>21.613567319264035</v>
       </c>
     </row>
-    <row r="230" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>0.80600899999999998</v>
       </c>
@@ -40154,7 +40154,7 @@
         <v>21.344581076038402</v>
       </c>
     </row>
-    <row r="231" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>0.82233800000000001</v>
       </c>
@@ -40327,7 +40327,7 @@
         <v>20.83974378863573</v>
       </c>
     </row>
-    <row r="232" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>0.83670800000000001</v>
       </c>
@@ -40500,7 +40500,7 @@
         <v>20.408488949766486</v>
       </c>
     </row>
-    <row r="233" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>0.83801400000000004</v>
       </c>
@@ -40673,7 +40673,7 @@
         <v>20.369879593156647</v>
       </c>
     </row>
-    <row r="234" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>0.85173100000000002</v>
       </c>
@@ -40846,7 +40846,7 @@
         <v>19.970077783361454</v>
       </c>
     </row>
-    <row r="235" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>0.85238400000000003</v>
       </c>
@@ -41019,7 +41019,7 @@
         <v>19.951301355548999</v>
       </c>
     </row>
-    <row r="236" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>0.86087499999999995</v>
       </c>
@@ -41192,7 +41192,7 @@
         <v>19.709222796583148</v>
       </c>
     </row>
-    <row r="237" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>0.86414100000000005</v>
       </c>
@@ -41365,7 +41365,7 @@
         <v>19.617121676955939</v>
       </c>
     </row>
-    <row r="238" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>0.86610100000000001</v>
       </c>
@@ -41538,7 +41538,7 @@
         <v>19.562116242867866</v>
       </c>
     </row>
-    <row r="239" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>0.87589799999999995</v>
       </c>
@@ -41711,7 +41711,7 @@
         <v>19.290127005354456</v>
       </c>
     </row>
-    <row r="240" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>0.88830799999999999</v>
       </c>
@@ -41884,7 +41884,7 @@
         <v>18.952499364451221</v>
       </c>
     </row>
-    <row r="241" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>0.88961500000000004</v>
       </c>
@@ -42057,7 +42057,7 @@
         <v>18.917380187782165</v>
       </c>
     </row>
-    <row r="242" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>0.89353400000000005</v>
       </c>
@@ -42230,7 +42230,7 @@
         <v>18.81256977150818</v>
       </c>
     </row>
-    <row r="243" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>0.903331</v>
       </c>
@@ -42403,7 +42403,7 @@
         <v>18.553748746329248</v>
       </c>
     </row>
-    <row r="244" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>0.90790300000000002</v>
       </c>
@@ -42576,7 +42576,7 @@
         <v>18.434497677773855</v>
       </c>
     </row>
-    <row r="245" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>0.91639499999999996</v>
       </c>
@@ -42749,7 +42749,7 @@
         <v>18.215537214175463</v>
       </c>
     </row>
-    <row r="246" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>0.91704799999999997</v>
       </c>
@@ -42922,7 +42922,7 @@
         <v>18.198834816041163</v>
       </c>
     </row>
-    <row r="247" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>0.92161999999999999</v>
       </c>
@@ -43095,7 +43095,7 @@
         <v>18.08242477566067</v>
       </c>
     </row>
-    <row r="248" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>0.92488599999999999</v>
       </c>
@@ -43268,7 +43268,7 @@
         <v>17.999833482538669</v>
       </c>
     </row>
-    <row r="249" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>0.925539</v>
       </c>
@@ -43441,7 +43441,7 @@
         <v>17.983376426840564</v>
       </c>
     </row>
-    <row r="250" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>0.92749800000000004</v>
       </c>
@@ -43614,7 +43614,7 @@
         <v>17.934116920730617</v>
       </c>
     </row>
-    <row r="251" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>0.92815199999999998</v>
       </c>
@@ -43787,7 +43787,7 @@
         <v>17.917709120897698</v>
       </c>
     </row>
-    <row r="252" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>0.92880499999999999</v>
       </c>
@@ -43960,7 +43960,7 @@
         <v>17.901344923355872</v>
       </c>
     </row>
-    <row r="253" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>0.92945800000000001</v>
       </c>
@@ -44133,7 +44133,7 @@
         <v>17.884999192610714</v>
       </c>
     </row>
-    <row r="254" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>0.93468300000000004</v>
       </c>
@@ -44306,7 +44306,7 @@
         <v>17.754869432310755</v>
       </c>
     </row>
-    <row r="255" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>0.93533599999999995</v>
       </c>
@@ -44479,7 +44479,7 @@
         <v>17.738688461691318</v>
       </c>
     </row>
-    <row r="256" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>0.93598999999999999</v>
       </c>
@@ -44652,7 +44652,7 @@
         <v>17.722500895099728</v>
       </c>
     </row>
-    <row r="257" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>0.94121500000000002</v>
       </c>
@@ -44825,7 +44825,7 @@
         <v>17.593823240011886</v>
       </c>
     </row>
-    <row r="258" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>0.94448100000000001</v>
       </c>
@@ -44998,7 +44998,7 @@
         <v>17.513972132226577</v>
       </c>
     </row>
-    <row r="259" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>0.94643999999999995</v>
       </c>
@@ -45171,7 +45171,7 @@
         <v>17.466288824101142</v>
       </c>
     </row>
-    <row r="260" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>0.94840000000000002</v>
       </c>
@@ -45344,7 +45344,7 @@
         <v>17.418739759354963</v>
       </c>
     </row>
-    <row r="261" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>0.94905300000000004</v>
       </c>
@@ -45517,7 +45517,7 @@
         <v>17.402933241542442</v>
       </c>
     </row>
-    <row r="262" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>0.95166600000000001</v>
       </c>
@@ -45690,7 +45690,7 @@
         <v>17.339857622056492</v>
       </c>
     </row>
-    <row r="263" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>0.95297200000000004</v>
       </c>
@@ -45863,7 +45863,7 @@
         <v>17.308436205887745</v>
       </c>
     </row>
-    <row r="264" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>0.95427799999999996</v>
       </c>
@@ -46036,7 +46036,7 @@
         <v>17.277083999155707</v>
       </c>
     </row>
-    <row r="265" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>0.96015700000000004</v>
       </c>
@@ -46209,7 +46209,7 @@
         <v>17.136801635785012</v>
       </c>
     </row>
-    <row r="266" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>0.96081000000000005</v>
       </c>
@@ -46382,7 +46382,7 @@
         <v>17.121305306155449</v>
       </c>
     </row>
-    <row r="267" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>0.96146299999999996</v>
       </c>
@@ -46555,7 +46555,7 @@
         <v>17.105825922820578</v>
       </c>
     </row>
-    <row r="268" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>0.96211599999999997</v>
       </c>
@@ -46728,7 +46728,7 @@
         <v>17.090363456571467</v>
       </c>
     </row>
-    <row r="269" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>0.96276899999999999</v>
       </c>
@@ -46901,7 +46901,7 @@
         <v>17.074917878268067</v>
       </c>
     </row>
-    <row r="270" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>0.96407600000000004</v>
       </c>
@@ -47074,7 +47074,7 @@
         <v>17.044053680504113</v>
       </c>
     </row>
-    <row r="271" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>0.96472899999999995</v>
       </c>
@@ -47247,7 +47247,7 @@
         <v>17.028658617589635</v>
       </c>
     </row>
-    <row r="272" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>0.96538199999999996</v>
       </c>
@@ -47420,7 +47420,7 @@
         <v>17.013280326700929</v>
       </c>
     </row>
-    <row r="273" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>0.96603499999999998</v>
       </c>
@@ -47593,7 +47593,7 @@
         <v>16.997918779039281</v>
       </c>
     </row>
-    <row r="274" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>0.96799500000000005</v>
       </c>
@@ -47766,7 +47766,7 @@
         <v>16.951910873284532</v>
       </c>
     </row>
-    <row r="275" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>0.96864799999999995</v>
       </c>
@@ -47939,7 +47939,7 @@
         <v>16.936616037336726</v>
       </c>
     </row>
-    <row r="276" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>0.96930099999999997</v>
       </c>
@@ -48112,7 +48112,7 @@
         <v>16.921337801589281</v>
       </c>
     </row>
-    <row r="277" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>0.96995399999999998</v>
       </c>
@@ -48285,7 +48285,7 @@
         <v>16.90607613764638</v>
       </c>
     </row>
-    <row r="278" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>0.970607</v>
       </c>
@@ -48458,7 +48458,7 @@
         <v>16.890831017178627</v>
       </c>
     </row>
-    <row r="279" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>0.97126100000000004</v>
       </c>
@@ -48631,7 +48631,7 @@
         <v>16.875579103585309</v>
       </c>
     </row>
-    <row r="280" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>0.97191399999999994</v>
       </c>
@@ -48804,7 +48804,7 @@
         <v>16.860367010570954</v>
       </c>
     </row>
-    <row r="281" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>0.97256699999999996</v>
       </c>
@@ -48977,7 +48977,7 @@
         <v>16.84517137639719</v>
       </c>
     </row>
-    <row r="282" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>0.97321999999999997</v>
       </c>
@@ -49150,7 +49150,7 @@
         <v>16.829992172998487</v>
       </c>
     </row>
-    <row r="283" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>0.97387299999999999</v>
       </c>
@@ -49323,7 +49323,7 @@
         <v>16.814829372374795</v>
       </c>
     </row>
-    <row r="284" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>0.974526</v>
       </c>
@@ -49496,7 +49496,7 @@
         <v>16.799682946591325</v>
       </c>
     </row>
-    <row r="285" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>0.97583299999999995</v>
       </c>
@@ -49669,7 +49669,7 @@
         <v>16.76941597551712</v>
       </c>
     </row>
-    <row r="286" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>0.97713899999999998</v>
       </c>
@@ -49842,7 +49842,7 @@
         <v>16.739237352635456</v>
       </c>
     </row>
-    <row r="287" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>0.97779199999999999</v>
       </c>
@@ -50015,7 +50015,7 @@
         <v>16.724172409144515</v>
       </c>
     </row>
-    <row r="288" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>0.97844500000000001</v>
       </c>
@@ -50188,7 +50188,7 @@
         <v>16.709123674202594</v>
       </c>
     </row>
-    <row r="289" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>0.97909900000000005</v>
       </c>
@@ -50361,7 +50361,7 @@
         <v>16.694068111964853</v>
       </c>
     </row>
-    <row r="290" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>0.97975199999999996</v>
       </c>
@@ -50534,7 +50534,7 @@
         <v>16.679051736451569</v>
       </c>
     </row>
-    <row r="291" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>0.98040499999999997</v>
       </c>
@@ -50707,7 +50707,7 @@
         <v>16.664051487186754</v>
       </c>
     </row>
-    <row r="292" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>0.98105799999999999</v>
       </c>
@@ -50880,7 +50880,7 @@
         <v>16.649067336877913</v>
       </c>
     </row>
-    <row r="293" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>0.98301799999999995</v>
       </c>
